--- a/annotation_responses_dataset2.xlsx
+++ b/annotation_responses_dataset2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler/memory_similarity/data_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler/Similarity_Structure_of_Autobiographical_Memories-submission/Supplementary-Materials/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{474ABB37-A28A-824E-947F-6668A824F803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135F971-5FFA-7F44-B5D5-19064B17731D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annotation_responses_dataset2" sheetId="1" r:id="rId1"/>
@@ -1777,9 +1777,6 @@
     <t>{'growth': 2.0, 'improvement': 1.0, 'civil': 1.0, 'mature': 0.0, 'proud': 2.0}</t>
   </si>
   <si>
-    <t>RAW ANNOTATION RESPONSES FOR DATASET 1</t>
-  </si>
-  <si>
     <t>Each annotation is color-coded, which indicates how its corresponding distance feature was derived or if the annotation was not used to generate a distance feature for analysis. The legend is below:</t>
   </si>
   <si>
@@ -1799,12 +1796,15 @@
   </si>
   <si>
     <t>No distance feature was generated from this annotation. The "Word Cloud" annotations were not included in analysis because it isn't clear what type of dimension (i.e. Temporal, Spatial, Emotional, etc.) its distance feature would belong to. The "Temporal Location" annotation wasn't used because this measurement was not collected for all participants. However, the "Temporal Separation" annotation captures the same information for the purposes of our analyses.</t>
+  </si>
+  <si>
+    <t>RAW ANNOTATION RESPONSES FOR DATASET 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2298,9 +2298,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2317,6 +2314,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="26" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2673,12 +2673,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DY1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AN1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2761,14 +2759,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:137" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2781,85 +2779,85 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="11" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -2874,403 +2872,403 @@
       <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AK11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM11" s="7" t="s">
+      <c r="AM11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AN11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AO11" s="8" t="s">
+      <c r="AO11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AP11" s="8" t="s">
+      <c r="AP11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AQ11" s="6" t="s">
+      <c r="AQ11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR11" s="6" t="s">
+      <c r="AR11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AT11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU11" s="7" t="s">
+      <c r="AU11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AV11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AW11" s="7" t="s">
+      <c r="AW11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AX11" s="7" t="s">
+      <c r="AX11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AY11" s="7" t="s">
+      <c r="AY11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AZ11" s="7" t="s">
+      <c r="AZ11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BA11" s="7" t="s">
+      <c r="BA11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BB11" s="7" t="s">
+      <c r="BB11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BC11" s="7" t="s">
+      <c r="BC11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BD11" s="7" t="s">
+      <c r="BD11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BE11" s="7" t="s">
+      <c r="BE11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BF11" s="7" t="s">
+      <c r="BF11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BG11" s="7" t="s">
+      <c r="BG11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BH11" s="7" t="s">
+      <c r="BH11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BI11" s="7" t="s">
+      <c r="BI11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BJ11" s="7" t="s">
+      <c r="BJ11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BK11" s="7" t="s">
+      <c r="BK11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BL11" s="7" t="s">
+      <c r="BL11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BM11" s="7" t="s">
+      <c r="BM11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BN11" s="7" t="s">
+      <c r="BN11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BO11" s="7" t="s">
+      <c r="BO11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BP11" s="7" t="s">
+      <c r="BP11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BQ11" s="7" t="s">
+      <c r="BQ11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BR11" s="7" t="s">
+      <c r="BR11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BS11" s="7" t="s">
+      <c r="BS11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BT11" s="7" t="s">
+      <c r="BT11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BU11" s="7" t="s">
+      <c r="BU11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BV11" s="7" t="s">
+      <c r="BV11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BW11" s="7" t="s">
+      <c r="BW11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BX11" s="7" t="s">
+      <c r="BX11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BY11" s="9" t="s">
+      <c r="BY11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BZ11" s="6" t="s">
+      <c r="BZ11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA11" s="7" t="s">
+      <c r="CA11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CB11" s="7" t="s">
+      <c r="CB11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC11" s="7" t="s">
+      <c r="CC11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CD11" s="7" t="s">
+      <c r="CD11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CE11" s="7" t="s">
+      <c r="CE11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CF11" s="7" t="s">
+      <c r="CF11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CG11" s="7" t="s">
+      <c r="CG11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CH11" s="7" t="s">
+      <c r="CH11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI11" s="7" t="s">
+      <c r="CI11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="CJ11" s="7" t="s">
+      <c r="CJ11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="CK11" s="7" t="s">
+      <c r="CK11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL11" s="7" t="s">
+      <c r="CL11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM11" s="7" t="s">
+      <c r="CM11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN11" s="7" t="s">
+      <c r="CN11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO11" s="7" t="s">
+      <c r="CO11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP11" s="7" t="s">
+      <c r="CP11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CQ11" s="7" t="s">
+      <c r="CQ11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR11" s="7" t="s">
+      <c r="CR11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS11" s="7" t="s">
+      <c r="CS11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT11" s="7" t="s">
+      <c r="CT11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU11" s="7" t="s">
+      <c r="CU11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV11" s="7" t="s">
+      <c r="CV11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW11" s="7" t="s">
+      <c r="CW11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX11" s="7" t="s">
+      <c r="CX11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="CY11" s="7" t="s">
+      <c r="CY11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="CZ11" s="7" t="s">
+      <c r="CZ11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="DA11" s="7" t="s">
+      <c r="DA11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="DB11" s="7" t="s">
+      <c r="DB11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="DC11" s="6" t="s">
+      <c r="DC11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DD11" s="7" t="s">
+      <c r="DD11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="DE11" s="7" t="s">
+      <c r="DE11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="DF11" s="5" t="s">
+      <c r="DF11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG11" s="7" t="s">
+      <c r="DG11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DH11" s="7" t="s">
+      <c r="DH11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="DI11" s="7" t="s">
+      <c r="DI11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="DJ11" s="7" t="s">
+      <c r="DJ11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="DK11" s="7" t="s">
+      <c r="DK11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="DL11" s="7" t="s">
+      <c r="DL11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="DM11" s="9" t="s">
+      <c r="DM11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DN11" s="9" t="s">
+      <c r="DN11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DO11" s="7" t="s">
+      <c r="DO11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="DP11" s="7" t="s">
+      <c r="DP11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="DQ11" s="5" t="s">
+      <c r="DQ11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR11" s="7" t="s">
+      <c r="DR11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="DS11" s="7" t="s">
+      <c r="DS11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="DT11" s="7" t="s">
+      <c r="DT11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DU11" s="7" t="s">
+      <c r="DU11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="DV11" s="7" t="s">
+      <c r="DV11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="DW11" s="7" t="s">
+      <c r="DW11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="DX11" s="7" t="s">
+      <c r="DX11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="DY11" s="7" t="s">
+      <c r="DY11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="DZ11" s="7" t="s">
+      <c r="DZ11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EA11" s="7" t="s">
+      <c r="EA11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="EB11" s="7" t="s">
+      <c r="EB11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="EC11" s="7" t="s">
+      <c r="EC11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="ED11" s="7" t="s">
+      <c r="ED11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="EE11" s="7" t="s">
+      <c r="EE11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EF11" s="9" t="s">
+      <c r="EF11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EG11" s="9" t="s">
+      <c r="EG11" s="8" t="s">
         <v>136</v>
       </c>
     </row>
@@ -44163,12 +44161,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
